--- a/biology/Botanique/Beta_vulgaris/Beta_vulgaris.xlsx
+++ b/biology/Botanique/Beta_vulgaris/Beta_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beta vulgaris est une espèce de plantes de la famille des Amaranthaceae, originaire de l'ancien monde, dont plusieurs types de variétés sont cultivés (bettes (ou blettes selon la région), betteraves fourragères, potagères et sucrières).
 On reconnait généralement trois sous-espèces : 
@@ -516,11 +528,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Beta vulgaris est une plante herbacée bisannuelle ou, plus rarement, vivace, aux tiges feuillues pouvant atteindre 1 à+2m de haut, à racine pivotante épaisse.
 Les feuilles, au limbe cordiforme, mesurent de 5 à+20cm de long chez les plantes sauvages (souvent beaucoup plus grandes chez les plantes cultivées).
-La floraison a lieu de juin à septembre[2]. Les fleurs, vertes ou rougeâtres, à cinq pétales, sont groupées en épis denses ; chaque fleur est très petite, d'un diamètre de 3  à   5 mm ; elles sont pollinisées par le vent.
+La floraison a lieu de juin à septembre. Les fleurs, vertes ou rougeâtres, à cinq pétales, sont groupées en épis denses ; chaque fleur est très petite, d'un diamètre de 3  à   5 mm ; elles sont pollinisées par le vent.
 Les fruits sont des nucules regroupés en glomérules.
 </t>
         </is>
@@ -550,18 +564,55 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Beta vulgaris appartient à la famille des Amaranthaceae, sous-famille des Betoideae. Elle était auparavant classée dans la famille des Chenopodiaceae.
-La première description de Beta vulgaris est due à Linné, et fut publiée  en 1753 dans la première édition du Species Plantarum, p. 222[3]. 
+La première description de Beta vulgaris est due à Linné, et fut publiée  en 1753 dans la première édition du Species Plantarum, p. 222. 
 Il créa en même temps le genre Beta et considéra d'abord la betterave, la bette maritime et la bette comme trois variétés différentes de l'espèce Beta vulgaris (à l'époque on ne connaissait pas la betterave sucrière, ni la betterave fourragère). 
-Dans la deuxième édition du Species Plantarum, publiée en 1762, p. 322, Linné a érigé la forme sauvage en espèce distincte (Beta maritima) et a regroupé les formes cultivées dans l'espèce Beta vulgaris[4].
+Dans la deuxième édition du Species Plantarum, publiée en 1762, p. 322, Linné a érigé la forme sauvage en espèce distincte (Beta maritima) et a regroupé les formes cultivées dans l'espèce Beta vulgaris.
 Aujourd'hui, les formes sauvages et cultivées, qui peuvent être hybridées et avoir une descendance fertile, sont toutes considérées comme des sous-espèces d'une nature commune. 
 La position taxonomique des différentes formes cultivées, telles que variétés ou sous-espèces, a été modifiée à de nombreuses reprises. 
-Il est désormais admis que les cultivars doivent être tous regroupés au sein de la sous-espèce Beta vulgaris subsp. vulgaris[5].
+Il est désormais admis que les cultivars doivent être tous regroupés au sein de la sous-espèce Beta vulgaris subsp. vulgaris.
 La bette est parfois appelée abusivement blette. Le terme vernaculaire blette renvoie en fait à une autre espèce, Amaranthus blitum L., une amarante anciennement cultivée mais presque inconnue en France de nos jours.
-Synonymes
-Selon Euro+Med Plantbase[6] : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beta_vulgaris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beta_vulgaris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Euro+Med Plantbase : 
 Beta cicla L.
 Beta crispa Tratt.
 Beta esculenta Salisb., nom. illeg.
@@ -570,33 +621,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Beta_vulgaris</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Beta_vulgaris</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2014)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2014) :
 sous-espèce Beta vulgaris subsp. adanensis (Pamukç.) Ford-Lloyd &amp; J. T. Williams
 sous-espèce Beta vulgaris subsp. foliosa Asch. &amp; Schweinf. ex Boiss.
 sous-espèce Beta vulgaris subsp. maritima
@@ -606,10 +659,10 @@
 variété Beta vulgaris var. pilosa
 variété Beta vulgaris var. rapacea
 variété Beta vulgaris var. rubra
-Selon The Plant List            (7 août 2014)[8] :
+Selon The Plant List            (7 août 2014) :
 sous-espèce Beta vulgaris subsp. adanensis (Pamukç.) Ford-Lloyd &amp; J.T. Williams
 variété Beta vulgaris var. trojana (Pamukç.) Ford-Lloyd &amp; J.T. Williams
-Selon Tropicos                                           (7 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Beta vulgaris subsp. adanensis (Pamukç.) Ford-Lloyd &amp; J.T. Williams
 sous-espèce Beta vulgaris subsp. asiatica Krassochkin ex Burenin
 sous-espèce Beta vulgaris subsp. cicla (L.) Schübl. &amp; G. Martens
@@ -654,33 +707,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Beta_vulgaris</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Beta_vulgaris</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les saponines, fréquentes dans la famille des Amaranthaceae sont souvent considérées comme des facteurs antinutritionnels indésirables, mais ce point de vue tend à se nuancer ; ainsi les saponines triterpénoïdes de la Betterave rouge (Beta vulgaris L.) sont une source de composés antioxydants[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les saponines, fréquentes dans la famille des Amaranthaceae sont souvent considérées comme des facteurs antinutritionnels indésirables, mais ce point de vue tend à se nuancer ; ainsi les saponines triterpénoïdes de la Betterave rouge (Beta vulgaris L.) sont une source de composés antioxydants.
 </t>
         </is>
       </c>
